--- a/Table/TestDir/Test.xlsx
+++ b/Table/TestDir/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>UINT:ID</t>
   </si>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>ARR:GRADES</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>成绩</t>
   </si>
   <si>
     <t>zhangsan</t>
@@ -46,9 +58,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -60,6 +72,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -67,6 +102,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -74,15 +117,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,9 +169,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,71 +210,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -213,19 +225,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,163 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,31 +419,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,24 +451,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +507,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,133 +536,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,54 +1021,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1069,20 +1101,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,37 +1127,48 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Table/TestDir/Test.xlsx
+++ b/Table/TestDir/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
-    <t>UINT:ID</t>
+    <t>UNK:UINT:ID</t>
   </si>
   <si>
-    <t>STR:Name</t>
+    <t>FLD:STR:Name</t>
   </si>
   <si>
-    <t>UINT:Age</t>
+    <t>FLD:UINT:Age</t>
   </si>
   <si>
-    <t>ARR:GRADES</t>
+    <t>FLD:ARR:GRADES</t>
+  </si>
+  <si>
+    <t>CMT</t>
   </si>
   <si>
     <t>ID</t>
@@ -58,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,9 +77,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,32 +143,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,13 +174,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -139,8 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,17 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,46 +214,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,25 +228,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,157 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +419,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,10 +469,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -463,17 +479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,17 +500,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,8 +514,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,139 +539,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,74 +1027,83 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="12" width="9" style="1"/>
+    <col min="1" max="1" width="13.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
+    <col min="5" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1101,73 +1116,84 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Table/TestDir/Test.xlsx
+++ b/Table/TestDir/Test.xlsx
@@ -20,10 +20,10 @@
     <t>UNK:UINT:ID</t>
   </si>
   <si>
-    <t>FLD:STR:Name</t>
+    <t>KEY:STR:Name</t>
   </si>
   <si>
-    <t>FLD:UINT:Age</t>
+    <t>KEY:UINT:Age</t>
   </si>
   <si>
     <t>FLD:ARR:GRADES</t>
@@ -44,16 +44,16 @@
     <t>成绩</t>
   </si>
   <si>
-    <t>zhangsan</t>
+    <t>lisi</t>
   </si>
   <si>
     <t>50;29;60;90</t>
   </si>
   <si>
-    <t>lisi</t>
+    <t>70;40;70;88</t>
   </si>
   <si>
-    <t>70;40;70;88</t>
+    <t>zhangsan</t>
   </si>
 </sst>
 </file>
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,9 +75,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,46 +96,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +111,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -184,36 +183,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,67 +228,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,115 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,21 +419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,6 +433,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,15 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,13 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +508,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,154 +527,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,79 +1027,79 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="2" customWidth="1"/>
-    <col min="2" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="2" customWidth="1"/>
-    <col min="5" max="12" width="9" style="2"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1119,7 +1116,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1131,28 +1128,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1169,31 +1166,31 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Table/TestDir/Test.xlsx
+++ b/Table/TestDir/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
-    <t>UNK:UINT:ID</t>
+    <t>UNK:INT:ID</t>
   </si>
   <si>
     <t>KEY:STR:Name</t>
   </si>
   <si>
-    <t>KEY:UINT:Age</t>
+    <t>KEY:INT:Age</t>
   </si>
   <si>
     <t>FLD:ARR:GRADES</t>
@@ -61,8 +61,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -76,6 +76,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,6 +98,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -90,7 +119,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,6 +143,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,44 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -166,16 +196,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,37 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +228,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,13 +312,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,19 +378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,127 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,8 +440,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,6 +466,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,15 +511,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,145 +527,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,8 +1026,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1115,8 +1115,8 @@
   <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/Table/TestDir/Test.xlsx
+++ b/Table/TestDir/Test.xlsx
@@ -50,10 +50,10 @@
     <t>50;29;60;90</t>
   </si>
   <si>
-    <t>70;40;70;88</t>
+    <t>zhangsan</t>
   </si>
   <si>
-    <t>zhangsan</t>
+    <t>70;40;70;88</t>
   </si>
 </sst>
 </file>
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,73 +76,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,11 +90,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,9 +198,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,25 +228,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,157 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +419,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,9 +448,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,15 +468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,11 +513,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,31 +539,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,100 +578,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1091,13 +1091,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>15</v>
@@ -1190,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
